--- a/data/trans_dic/P1427-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1427-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.01023136633529998</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.004400451663893501</v>
+        <v>0.004400451663893502</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.03756634711614893</v>
@@ -664,7 +664,7 @@
         <v>0.02140426401620244</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.007637365451091492</v>
+        <v>0.00763736545109149</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01637475281579168</v>
+        <v>0.01710441857839292</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003152000076360021</v>
+        <v>0.003163287175940094</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0187515002441301</v>
+        <v>0.01905998272050239</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01535487159528261</v>
+        <v>0.01571127243407095</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004685694888400877</v>
+        <v>0.004680748937695114</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0215279241571903</v>
+        <v>0.02336225473867866</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01074368424417921</v>
+        <v>0.01056852295263905</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003834879619499147</v>
+        <v>0.003780310337992638</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05774250120126927</v>
+        <v>0.06100811177354153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02906700044045452</v>
+        <v>0.03267002036529438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01439521312613828</v>
+        <v>0.01408452840179859</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06681031473300823</v>
+        <v>0.06536431675589637</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0635675046814982</v>
+        <v>0.06104938894007906</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02087300190346995</v>
+        <v>0.02199517052258407</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05275539708970188</v>
+        <v>0.05539561731736063</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03749151267135101</v>
+        <v>0.03851296826173009</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01516993980324106</v>
+        <v>0.01504608951856884</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.00671938299706579</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.03149343742337675</v>
+        <v>0.03149343742337674</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003980633728987087</v>
+        <v>0.003946698789833634</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01132803282105615</v>
+        <v>0.01135710198918788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01498323649127408</v>
+        <v>0.0140026443608225</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004101840275284787</v>
+        <v>0.003986771978719098</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02902944559591772</v>
+        <v>0.0284649552010734</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0108899766633626</v>
+        <v>0.0112593510053125</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002362722233583087</v>
+        <v>0.002439750728298915</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02268400745460697</v>
+        <v>0.02270177152892515</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0227401315196234</v>
+        <v>0.02263548426094677</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01295142214222763</v>
+        <v>0.0115990369159339</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03696177512748533</v>
+        <v>0.03785012777852477</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04600936932979206</v>
+        <v>0.04556962073542031</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02472178827222003</v>
+        <v>0.02502447452563816</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05678438505572633</v>
+        <v>0.0568176929697467</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0306684176573718</v>
+        <v>0.0293329084670882</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01396066931387523</v>
+        <v>0.0141177645455188</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04147029692331212</v>
+        <v>0.04030557642993959</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.01623690959098317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.05928017881975432</v>
+        <v>0.05928017881975433</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.01865869640051764</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005957174806621637</v>
+        <v>0.00590309846195373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005801311968676284</v>
+        <v>0.005920169080487079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04106052874102058</v>
+        <v>0.0429136606760349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00631282716754837</v>
+        <v>0.00640302875694997</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005483108248245769</v>
+        <v>0.005748896536077865</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04250444518946014</v>
+        <v>0.04112970263010152</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009074247113889919</v>
+        <v>0.00941502831924906</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008287390686797553</v>
+        <v>0.007849598782460623</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04580541367909911</v>
+        <v>0.04618204820881031</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03387357887793982</v>
+        <v>0.03277881234048574</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03392120539191091</v>
+        <v>0.03245218724831755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08253730087890111</v>
+        <v>0.08424254885793493</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04064593765944671</v>
+        <v>0.03735916680694294</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03495803458616911</v>
+        <v>0.03495160401694834</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07979095594987692</v>
+        <v>0.07857181580881692</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02948253251828896</v>
+        <v>0.03030951978256798</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02717496875368682</v>
+        <v>0.02734425773801672</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07301765813553258</v>
+        <v>0.07301178089814303</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01110847543898408</v>
+        <v>0.01091986316573071</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002247176777185978</v>
+        <v>0.002233367048011341</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01000922848599257</v>
+        <v>0.009470743972753567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01741838822511057</v>
+        <v>0.01752843532351173</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00597665258683174</v>
+        <v>0.007142648622706691</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01387736082196607</v>
+        <v>0.01368808824881085</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01714105340650749</v>
+        <v>0.01796648135258714</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006024326772412816</v>
+        <v>0.006471716140896191</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0138783164352431</v>
+        <v>0.01406238441627366</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04294910256116936</v>
+        <v>0.04230400875199936</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02182505642346135</v>
+        <v>0.02392010844497231</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03585174802569275</v>
+        <v>0.03309666239540225</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05489872978589108</v>
+        <v>0.05743705582723128</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03616784032033411</v>
+        <v>0.03637635612399188</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03283496965213298</v>
+        <v>0.03374998947591558</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04479601261250233</v>
+        <v>0.04370268827477488</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0233023455916022</v>
+        <v>0.02404441273863708</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02824069177491223</v>
+        <v>0.02892258317040026</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.03078357420089908</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.03543128186732526</v>
+        <v>0.03543128186732525</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.05008099586308084</v>
@@ -1111,29 +1111,29 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02445284286310229</v>
+        <v>0.02059519389894923</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.02444082015185751</v>
+        <v>0.02698224053237031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0296229719495957</v>
+        <v>0.03082685526054353</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01042810296780649</v>
+        <v>0.01037431564529342</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02206975558368955</v>
+        <v>0.02291033595220984</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02944053479327731</v>
+        <v>0.03208717108197689</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.005494156288272906</v>
+        <v>0.005322401014238913</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02797088757493208</v>
+        <v>0.02720103065031344</v>
       </c>
     </row>
     <row r="18">
@@ -1144,29 +1144,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08689451948038948</v>
+        <v>0.08074773416737802</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.06604189517406903</v>
+        <v>0.07183787605801698</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09688223750372699</v>
+        <v>0.09529753119510356</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05936062554790363</v>
+        <v>0.06196267585521456</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05228063903082026</v>
+        <v>0.05388182503999291</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07402619015973122</v>
+        <v>0.07771975540522058</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0322275237998186</v>
+        <v>0.03237282194943149</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05236334668519484</v>
+        <v>0.05321428832624557</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.03037901296582622</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.1199023053942891</v>
+        <v>0.119902305394289</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.01106647092035122</v>
@@ -1219,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.005919602277441044</v>
+        <v>0.006086218486533873</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07975034164503406</v>
+        <v>0.08208237688844043</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003589814632671077</v>
+        <v>0.003558316225972128</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01256581885600384</v>
+        <v>0.01289765782572287</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09570663629894931</v>
+        <v>0.09548923354982179</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003790536896327881</v>
+        <v>0.003866970270580935</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01264967763881181</v>
+        <v>0.01239522062707477</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09565108411297189</v>
+        <v>0.09634098915399743</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02754196536353407</v>
+        <v>0.02378477565570562</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03439195487893842</v>
+        <v>0.0375181215242242</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1347221277492474</v>
+        <v>0.135865927821519</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03329032823402302</v>
+        <v>0.0357193970692635</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05982104023569954</v>
+        <v>0.06116611452367978</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1464644712677447</v>
+        <v>0.1493611905682336</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02354943048417775</v>
+        <v>0.02414571739909522</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04009469999734433</v>
+        <v>0.03930933185592991</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1349178863846391</v>
+        <v>0.1334651092014893</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>0.01718005491922107</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.03155774661067882</v>
+        <v>0.03155774661067883</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.02229916929357275</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01235262298214838</v>
+        <v>0.01116579110946083</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.008633713233323006</v>
+        <v>0.008679932606752989</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02007070401592894</v>
+        <v>0.02063403005694375</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0128229306826728</v>
+        <v>0.01328500701447115</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0169104392676255</v>
+        <v>0.01680145390990327</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05019764946019063</v>
+        <v>0.05059078122230905</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0140592889294663</v>
+        <v>0.01439716273207915</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01504053004680037</v>
+        <v>0.0151867510371642</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03937344173830983</v>
+        <v>0.03929185808334434</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03934309978937187</v>
+        <v>0.0373052101665142</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02882568818521865</v>
+        <v>0.02922979831258</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04841435866925917</v>
+        <v>0.04829647229930483</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03719393850406925</v>
+        <v>0.03742601772947115</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04494750827722481</v>
+        <v>0.04325470801749868</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08124466892353524</v>
+        <v>0.08229082275222158</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03126003116424064</v>
+        <v>0.0317203359838112</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03151859257875307</v>
+        <v>0.0322535791535569</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05892118805706505</v>
+        <v>0.06031141023727958</v>
       </c>
     </row>
     <row r="25">
@@ -1414,7 +1414,7 @@
         <v>0.02280429521019445</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.02509854363612553</v>
+        <v>0.02509854363612554</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.01979313023139606</v>
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.008563864684145198</v>
+        <v>0.00842625494541528</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004631959336055604</v>
+        <v>0.004537934949994713</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.007548736330213007</v>
+        <v>0.007543178875681551</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01339082560991412</v>
+        <v>0.01341843120752611</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0135654218525487</v>
+        <v>0.01382570172706126</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01800714442487031</v>
+        <v>0.01809794701273548</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01384412287194137</v>
+        <v>0.0128487110638481</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01094208537733117</v>
+        <v>0.01088319340448366</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01417908256383412</v>
+        <v>0.0143601515650203</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03344102183339849</v>
+        <v>0.03300533059624877</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02094672896155579</v>
+        <v>0.02013483102540545</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02103989811192164</v>
+        <v>0.02261250330993136</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03551083615167434</v>
+        <v>0.03462392669076222</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03644058662350096</v>
+        <v>0.0349044932916077</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03557150121940494</v>
+        <v>0.03455631572174751</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02983036401884546</v>
+        <v>0.02940666510466206</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02385151548771671</v>
+        <v>0.02419916496513159</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02557630319801298</v>
+        <v>0.02565874903146013</v>
       </c>
     </row>
     <row r="28">
@@ -1532,7 +1532,7 @@
         <v>0.0166962359652568</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.03789208662551559</v>
+        <v>0.03789208662551558</v>
       </c>
     </row>
     <row r="29">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01520251524527415</v>
+        <v>0.01494209637510456</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.007264238715259309</v>
+        <v>0.007430388268330931</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02668816057597135</v>
+        <v>0.02617201660941181</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02156891674828244</v>
+        <v>0.02150028959023025</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01796742505529133</v>
+        <v>0.01764986302069354</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03961516006731217</v>
+        <v>0.04017999867252654</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01957924721141818</v>
+        <v>0.01985393277292434</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01371901388429192</v>
+        <v>0.01381790514721977</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03460069784431748</v>
+        <v>0.03474782421906175</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02530010572625466</v>
+        <v>0.02534816209930857</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01397583083922973</v>
+        <v>0.01413992815500514</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03708406509894682</v>
+        <v>0.03608254743302292</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03244326538359218</v>
+        <v>0.0320313471840005</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02855033919060121</v>
+        <v>0.02837992088294745</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.0499970974055269</v>
+        <v>0.05079300706367931</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02704997425167421</v>
+        <v>0.02758938401501106</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01982103987460975</v>
+        <v>0.02019220553175402</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04171612553916271</v>
+        <v>0.04197822691233973</v>
       </c>
     </row>
     <row r="31">
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4826</v>
+        <v>5041</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5386</v>
+        <v>5475</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4433</v>
+        <v>4536</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12529</v>
+        <v>13596</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6258</v>
+        <v>6156</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2435</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="7">
@@ -1870,31 +1870,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17019</v>
+        <v>17981</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8539</v>
+        <v>9597</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4590</v>
+        <v>4491</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19191</v>
+        <v>18776</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18352</v>
+        <v>17625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6597</v>
+        <v>6952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30703</v>
+        <v>32239</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21837</v>
+        <v>22432</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9631</v>
+        <v>9553</v>
       </c>
     </row>
     <row r="8">
@@ -1979,31 +1979,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5974</v>
+        <v>5989</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7848</v>
+        <v>7334</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2146</v>
+        <v>2085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15845</v>
+        <v>15536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11209</v>
+        <v>11589</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2423</v>
+        <v>2502</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24344</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="11">
@@ -2014,31 +2014,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11496</v>
+        <v>11443</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6509</v>
+        <v>5829</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19492</v>
+        <v>19961</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24098</v>
+        <v>23868</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12932</v>
+        <v>13090</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30993</v>
+        <v>31012</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>31567</v>
+        <v>30192</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14319</v>
+        <v>14480</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>44505</v>
+        <v>43255</v>
       </c>
     </row>
     <row r="12">
@@ -2123,31 +2123,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1930</v>
+        <v>1913</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1848</v>
+        <v>1886</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12975</v>
+        <v>13560</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2153</v>
+        <v>2184</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1844</v>
+        <v>1933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15148</v>
+        <v>14658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6035</v>
+        <v>6262</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5427</v>
+        <v>5140</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>30798</v>
+        <v>31052</v>
       </c>
     </row>
     <row r="15">
@@ -2158,31 +2158,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10977</v>
+        <v>10622</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10806</v>
+        <v>10338</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26081</v>
+        <v>26620</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13861</v>
+        <v>12740</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11757</v>
+        <v>11755</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>28436</v>
+        <v>28002</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19608</v>
+        <v>20158</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17796</v>
+        <v>17907</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49095</v>
+        <v>49091</v>
       </c>
     </row>
     <row r="16">
@@ -2267,31 +2267,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4154</v>
+        <v>4084</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3735</v>
+        <v>3534</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6775</v>
+        <v>6818</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2315</v>
+        <v>2766</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5846</v>
+        <v>5766</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13077</v>
+        <v>13707</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4562</v>
+        <v>4901</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11025</v>
+        <v>11171</v>
       </c>
     </row>
     <row r="19">
@@ -2302,31 +2302,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16062</v>
+        <v>15821</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8074</v>
+        <v>8850</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13378</v>
+        <v>12350</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21353</v>
+        <v>22340</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14007</v>
+        <v>14088</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13832</v>
+        <v>14218</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34176</v>
+        <v>33342</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17646</v>
+        <v>18208</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22435</v>
+        <v>22977</v>
       </c>
     </row>
     <row r="20">
@@ -2411,29 +2411,29 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5199</v>
+        <v>4379</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>5027</v>
+        <v>5549</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6505</v>
+        <v>6769</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2279</v>
+        <v>2268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5006</v>
+        <v>5197</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12724</v>
+        <v>13868</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2361</v>
+        <v>2288</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>12097</v>
+        <v>11764</v>
       </c>
     </row>
     <row r="23">
@@ -2444,29 +2444,29 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18475</v>
+        <v>17168</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>13583</v>
+        <v>14775</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21274</v>
+        <v>20926</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>12975</v>
+        <v>13544</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11858</v>
+        <v>12222</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>31995</v>
+        <v>33591</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13852</v>
+        <v>13914</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>22647</v>
+        <v>23015</v>
       </c>
     </row>
     <row r="24">
@@ -2554,28 +2554,28 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1558</v>
+        <v>1601</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21589</v>
+        <v>22220</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3432</v>
+        <v>3523</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>25137</v>
+        <v>25079</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2093</v>
+        <v>2135</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6783</v>
+        <v>6647</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>51015</v>
+        <v>51383</v>
       </c>
     </row>
     <row r="27">
@@ -2586,31 +2586,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7546</v>
+        <v>6517</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9049</v>
+        <v>9872</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>36470</v>
+        <v>36780</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9258</v>
+        <v>9933</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>16338</v>
+        <v>16705</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>38468</v>
+        <v>39229</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13001</v>
+        <v>13330</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21500</v>
+        <v>21079</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>71958</v>
+        <v>71183</v>
       </c>
     </row>
     <row r="28">
@@ -2695,31 +2695,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8187</v>
+        <v>7401</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5669</v>
+        <v>5699</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14410</v>
+        <v>14814</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8897</v>
+        <v>9218</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11690</v>
+        <v>11615</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>38719</v>
+        <v>39022</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>19073</v>
+        <v>19532</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>20272</v>
+        <v>20469</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>58638</v>
+        <v>58517</v>
       </c>
     </row>
     <row r="31">
@@ -2730,31 +2730,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>26076</v>
+        <v>24725</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18926</v>
+        <v>19191</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34759</v>
+        <v>34675</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>25807</v>
+        <v>25968</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>31072</v>
+        <v>29902</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>62667</v>
+        <v>63474</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>42409</v>
+        <v>43033</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>42482</v>
+        <v>43473</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>87750</v>
+        <v>89821</v>
       </c>
     </row>
     <row r="32">
@@ -2839,31 +2839,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>6672</v>
+        <v>6565</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3606</v>
+        <v>3533</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6024</v>
+        <v>6020</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>11015</v>
+        <v>11038</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>11207</v>
+        <v>11422</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>14957</v>
+        <v>15032</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>22174</v>
+        <v>20579</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>17559</v>
+        <v>17465</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>23093</v>
+        <v>23388</v>
       </c>
     </row>
     <row r="35">
@@ -2874,31 +2874,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>26054</v>
+        <v>25714</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16309</v>
+        <v>15677</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>16791</v>
+        <v>18046</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>29210</v>
+        <v>28481</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>30106</v>
+        <v>28837</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>29546</v>
+        <v>28703</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>47779</v>
+        <v>47100</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>38276</v>
+        <v>38834</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>41656</v>
+        <v>41790</v>
       </c>
     </row>
     <row r="36">
@@ -2983,31 +2983,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>52096</v>
+        <v>51203</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>24657</v>
+        <v>25221</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>94149</v>
+        <v>92328</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>76680</v>
+        <v>76436</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>63686</v>
+        <v>62561</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>147801</v>
+        <v>149909</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>136700</v>
+        <v>138618</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>95195</v>
+        <v>95881</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>251155</v>
+        <v>252223</v>
       </c>
     </row>
     <row r="39">
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>86698</v>
+        <v>86863</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>47439</v>
+        <v>47996</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>130823</v>
+        <v>127290</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>115339</v>
+        <v>113875</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>101198</v>
+        <v>100594</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>186536</v>
+        <v>189505</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>188860</v>
+        <v>192626</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>137536</v>
+        <v>140112</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>302804</v>
+        <v>304706</v>
       </c>
     </row>
     <row r="40">
